--- a/Data/Transitions/19221933Translation.xlsx
+++ b/Data/Transitions/19221933Translation.xlsx
@@ -28,22 +28,22 @@
     <t>{1.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.23030650243483242}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.7013754525363534}</t>
+    <t>{486.0: 0.23351728144060413}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6949628567939019}</t>
   </si>
   <si>
     <t>{4.0: 1.0}</t>
   </si>
   <si>
-    <t>{5.0: 0.9881325570980743}</t>
+    <t>{5.0: 0.988177559669864}</t>
   </si>
   <si>
     <t>{6.0: 1.0}</t>
   </si>
   <si>
-    <t>{7.0: 0.9854496071393928}</t>
+    <t>{7.0: 0.9853027630805409}</t>
   </si>
   <si>
     <t>{8.0: 1.0}</t>
@@ -52,7 +52,7 @@
     <t>{9.0: 1.0}</t>
   </si>
   <si>
-    <t>{10.0: 0.9896835717381881}</t>
+    <t>{10.0: 0.9895951735594999}</t>
   </si>
   <si>
     <t>{11.0: 1.0}</t>
@@ -64,7 +64,7 @@
     <t>{13.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9690755208333334}</t>
+    <t>{14.0: 0.9691257718557036}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -73,7 +73,7 @@
     <t>{16.0: 1.0}</t>
   </si>
   <si>
-    <t>{17.0: 0.989010989010989}</t>
+    <t>{17.0: 0.9890756302521009}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
@@ -106,13 +106,13 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 246.0: 0.020874619707506332, 681.0: 0.003530544559751792, 741.0: 0.006816245384833854, 789.0: 0.0030806647750304013, 90.0: 0.005317945236478841}</t>
+    <t>{46.0: 1.0, 246.0: 0.02085531349175946, 681.0: 0.0035354617527319477, 741.0: 0.006816245384833854, 789.0: 0.0030869212022745737, 90.0: 0.005340909090909091}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038, 291.0: 0.0025782349920288987}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448, 291.0: 0.002574966691196572}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -130,7 +130,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{61.0: 0.9013317191283293}</t>
+    <t>{61.0: 0.900012268433321}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -145,13 +145,13 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9914243102162565}</t>
+    <t>{71.0: 0.9914200447649838}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.9985699985699986}</t>
+    <t>{73.0: 0.9985652797704447}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
@@ -172,10 +172,10 @@
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{80.0: 1.0, 757.0: 0.13017306245297217}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.7813823256000803}</t>
+    <t>{80.0: 1.0, 757.0: 0.16313059877416314}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.7794077557009111}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -190,7 +190,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.9977833604255948}</t>
+    <t>{86.0: 0.9977641973468475}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -202,10 +202,10 @@
     <t>{89.0: 1.0}</t>
   </si>
   <si>
-    <t>{90.0: 0.9946820547635211}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9996668959460804, 104.0: 0.037949392653297755}</t>
+    <t>{90.0: 0.9946590909090909}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9996710680889056, 104.0: 0.03566901463603607}</t>
   </si>
   <si>
     <t>{92.0: 1.0}</t>
@@ -226,7 +226,7 @@
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{98.0: 0.4111959803251983}</t>
+    <t>{98.0: 0.41510667628725817}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -244,22 +244,22 @@
     <t>{103.0: 1.0}</t>
   </si>
   <si>
-    <t>{104.0: 0.962037962037962}</t>
+    <t>{104.0: 0.964319248826291}</t>
   </si>
   <si>
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 1.0, 543.0: 0.0069992364469330616, 86.0: 0.0022166395744052016}</t>
+    <t>{107.0: 1.0, 543.0: 0.0067138671875, 86.0: 0.0022358026531524816}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
   </si>
   <si>
-    <t>{109.0: 1.0, 110.0: 0.0231353591160221}</t>
-  </si>
-  <si>
-    <t>{110.0: 0.976864640883978}</t>
+    <t>{109.0: 1.0, 110.0: 0.02275042444821732}</t>
+  </si>
+  <si>
+    <t>{110.0: 0.9772495755517827}</t>
   </si>
   <si>
     <t>{139.0: 0.6493268053855569}</t>
@@ -283,7 +283,7 @@
     <t>{146.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 1.0, 733.0: 0.0815552394499763}</t>
+    <t>{147.0: 1.0, 733.0: 0.07612303606992697}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -298,10 +298,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 1.0, 975.0: 0.0008218266525426588}</t>
-  </si>
-  <si>
-    <t>{162.0: 0.6392101731740047}</t>
+    <t>{152.0: 1.0, 975.0: 0.0008217910235256162}</t>
+  </si>
+  <si>
+    <t>{162.0: 0.6433579685427326}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -328,16 +328,16 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.7420137865000616}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9428147659854977, 81.0: 0.0036875050759796143}</t>
+    <t>{171.0: 0.74484948963753}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9421280853902602, 81.0: 0.0036781866715474803}</t>
   </si>
   <si>
     <t>{173.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 1.0, 502.0: 0.1790910723908748}</t>
+    <t>{174.0: 1.0, 502.0: 0.18068140630663285}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -349,25 +349,25 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 1.0, 14.0: 0.030924479166666668}</t>
+    <t>{178.0: 1.0, 14.0: 0.03087422814429639}</t>
   </si>
   <si>
     <t>{179.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 1.0, 410.0: 0.03427719821162444}</t>
+    <t>{180.0: 1.0, 410.0: 0.03398499659013412}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.6477801374923218}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.16187171408892798}</t>
-  </si>
-  <si>
-    <t>{184.0: 1.0, 171.0: 0.003679774442674422, 593.0: 0.0009526634095139165}</t>
+    <t>{182.0: 0.6467200725568916}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.16235887418898493}</t>
+  </si>
+  <si>
+    <t>{184.0: 1.0, 171.0: 0.003652113896148698, 593.0: 0.0009523944646077748}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
@@ -379,7 +379,7 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9985580389329488, 857.0: 0.004863297494749244}</t>
+    <t>{204.0: 0.9985426989215972, 857.0: 0.004861501441056218}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -400,10 +400,10 @@
     <t>{210.0: 1.0}</t>
   </si>
   <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 1.0, 681.0: 0.00641917192682144}</t>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 1.0, 681.0: 0.0064281122776944505}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -412,13 +412,13 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.2483001726694991}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.12090597299870061}</t>
+    <t>{897.0: 0.24775733895741378}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.12102073873692254}</t>
   </si>
   <si>
     <t>{219.0: 1.0}</t>
@@ -439,10 +439,10 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.6596534653465347}</t>
-  </si>
-  <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{227.0: 0.6191135734072022}</t>
+  </si>
+  <si>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -475,10 +475,13 @@
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.0005244755244755245}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.9994755244755245}</t>
+    <t>{240.0: 1.0, 241.0: 0.0005183137525915688}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.9994816862474084}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -487,7 +490,7 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.8937577127249445}</t>
+    <t>{246.0: 0.8938584493259513}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -496,13 +499,13 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9929750223015165}</t>
+    <t>{249.0: 0.9929308797127468}</t>
   </si>
   <si>
     <t>{250.0: 1.0}</t>
   </si>
   <si>
-    <t>{251.0: 0.4466893330379997}</t>
+    <t>{251.0: 0.46403865886525403}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
@@ -541,13 +544,13 @@
     <t>{263.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.8256951912792757, 843.0: 0.05213712708196535}</t>
+    <t>{264.0: 0.822645185991658, 843.0: 0.05310073134992693}</t>
   </si>
   <si>
     <t>{265.0: 0.7947379633574776}</t>
   </si>
   <si>
-    <t>{61.0: 0.09785552732248066, 887.0: 0.1816527991938137}</t>
+    <t>{61.0: 0.09913371951025017, 887.0: 0.18279766171966416}</t>
   </si>
   <si>
     <t>{268.0: 1.0}</t>
@@ -568,16 +571,16 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{275.0: 0.9948580830933772}</t>
+    <t>{275.0: 0.9948822927328557}</t>
   </si>
   <si>
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9602417730020147}</t>
-  </si>
-  <si>
-    <t>{278.0: 1.0, 767.0: 0.007574832009773977, 757.0: 0.025527821769220777}</t>
+    <t>{277.0: 0.9600539811066127}</t>
+  </si>
+  <si>
+    <t>{278.0: 1.0, 767.0: 0.006935123042505592, 757.0: 0.029445404857946115}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -589,7 +592,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.19034814841875028}</t>
+    <t>{182.0: 0.19092105325412345}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -601,22 +604,22 @@
     <t>{285.0: 1.0}</t>
   </si>
   <si>
-    <t>{286.0: 1.0, 909.0: 0.04610555228565823}</t>
+    <t>{286.0: 1.0, 909.0: 0.047051756932625886}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
-  </si>
-  <si>
-    <t>{289.0: 1.0, 730.0: 0.046404895461499236}</t>
+    <t>{288.0: 0.9978511952726296}</t>
+  </si>
+  <si>
+    <t>{289.0: 1.0, 730.0: 0.047420531526836895}</t>
   </si>
   <si>
     <t>{290.0: 1.0}</t>
   </si>
   <si>
-    <t>{291.0: 0.9315335374338992}</t>
+    <t>{291.0: 0.9313041049986037}</t>
   </si>
   <si>
     <t>{292.0: 1.0}</t>
@@ -637,7 +640,7 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.674955970412117}</t>
+    <t>{298.0: 0.6710160427807487}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -652,13 +655,13 @@
     <t>{302.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9137777777777778}</t>
+    <t>{303.0: 0.9136242208370436}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.7922672313682628}</t>
+    <t>{305.0: 0.7921536463673023}</t>
   </si>
   <si>
     <t>{306.0: 1.0, 142.0: 0.06740041928721174}</t>
@@ -670,7 +673,7 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.0014419610670511895}</t>
+    <t>{309.0: 1.0, 204.0: 0.001457301078402798}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
@@ -685,7 +688,7 @@
     <t>{314.0: 1.0}</t>
   </si>
   <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
@@ -700,13 +703,10 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
-    <t>{398.0: 1.0, 98.0: 0.5888040196748017}</t>
+    <t>{398.0: 1.0, 98.0: 0.5848933237127418}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
@@ -718,16 +718,16 @@
     <t>{401.0: 0.9842657342657343}</t>
   </si>
   <si>
-    <t>{402.0: 1.0, 476.0: 0.014933895797873095}</t>
+    <t>{402.0: 1.0, 476.0: 0.014905851383004936}</t>
   </si>
   <si>
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.6840894291295854}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.30840026047319297}</t>
+    <t>{404.0: 0.6812806587245971}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.31114225648213034}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -739,10 +739,10 @@
     <t>{408.0: 1.0}</t>
   </si>
   <si>
-    <t>{409.0: 0.8790940270012993}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.9657228017883756}</t>
+    <t>{409.0: 0.8789792612630773}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.9660150034098659}</t>
   </si>
   <si>
     <t>{412.0: 1.0}</t>
@@ -763,19 +763,19 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8796827421550545}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.865523866886647}</t>
+    <t>{418.0: 0.879367457019463}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8641091794830309}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{423.0: 0.9963219385547382}</t>
+    <t>{423.0: 0.9963346269943941}</t>
   </si>
   <si>
     <t>{424.0: 1.0}</t>
@@ -793,10 +793,10 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.29745909272316085}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.7025409072768392}</t>
+    <t>{431.0: 0.2216275151154723}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.7783724848845277}</t>
   </si>
   <si>
     <t>{432.0: 1.0}</t>
@@ -805,7 +805,7 @@
     <t>{433.0: 1.0}</t>
   </si>
   <si>
-    <t>{434.0: 0.9806678383128296}</t>
+    <t>{434.0: 0.9826452800420721}</t>
   </si>
   <si>
     <t>{435.0: 1.0}</t>
@@ -814,7 +814,7 @@
     <t>{436.0: 1.0}</t>
   </si>
   <si>
-    <t>{162.0: 0.36078982682599525}</t>
+    <t>{162.0: 0.35664203145726736}</t>
   </si>
   <si>
     <t>{438.0: 1.0}</t>
@@ -826,19 +826,19 @@
     <t>{440.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 1.0, 782.0: 0.006545006545006545}</t>
+    <t>{441.0: 1.0, 782.0: 0.0066929133858267716}</t>
   </si>
   <si>
     <t>{442.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 0.9623430962343096, 291.0: 0.06588822757407185}</t>
+    <t>{443.0: 0.9625164401578256, 291.0: 0.0661209283101997}</t>
   </si>
   <si>
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.826947033667272}</t>
+    <t>{476.0: 0.8253941069561146}</t>
   </si>
   <si>
     <t>{477.0: 1.0}</t>
@@ -853,7 +853,7 @@
     <t>{480.0: 1.0}</t>
   </si>
   <si>
-    <t>{481.0: 0.9938574938574939}</t>
+    <t>{481.0: 0.9938423645320197}</t>
   </si>
   <si>
     <t>{482.0: 1.0}</t>
@@ -868,7 +868,7 @@
     <t>{485.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.7696934975651676}</t>
+    <t>{486.0: 0.7664827185593959}</t>
   </si>
   <si>
     <t>{487.0: 1.0}</t>
@@ -883,25 +883,25 @@
     <t>{490.0: 1.0}</t>
   </si>
   <si>
-    <t>{491.0: 1.0, 492.0: 0.2332358287409201}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.7605750434193205}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9920582395764395}</t>
+    <t>{491.0: 1.0, 492.0: 0.233340311686442}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.7605070205814697}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9920826918847592}</t>
   </si>
   <si>
     <t>{494.0: 1.0}</t>
   </si>
   <si>
-    <t>{495.0: 0.9301775147928995}</t>
+    <t>{495.0: 0.9292226487523992}</t>
   </si>
   <si>
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.7682466786944399}</t>
+    <t>{497.0: 0.7672285981000494}</t>
   </si>
   <si>
     <t>{498.0: 1.0}</t>
@@ -910,13 +910,13 @@
     <t>{499.0: 1.0}</t>
   </si>
   <si>
-    <t>{500.0: 0.8108108108108109}</t>
+    <t>{500.0: 0.8075521695925804}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.8209089276091251}</t>
+    <t>{502.0: 0.8193185936933671}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -931,7 +931,7 @@
     <t>{506.0: 1.0}</t>
   </si>
   <si>
-    <t>{507.0: 0.7996186117467582}</t>
+    <t>{507.0: 0.7984965866380302}</t>
   </si>
   <si>
     <t>{529.0: 1.0}</t>
@@ -949,10 +949,10 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.8956154017360338}</t>
-  </si>
-  <si>
-    <t>{535.0: 1.0, 71.0: 0.008575689783743476}</t>
+    <t>{534.0: 0.8960549645390071}</t>
+  </si>
+  <si>
+    <t>{535.0: 1.0, 71.0: 0.008579955235016165}</t>
   </si>
   <si>
     <t>{536.0: 1.0}</t>
@@ -973,7 +973,7 @@
     <t>{542.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.9743148904571379}</t>
+    <t>{543.0: 0.9745948897571883}</t>
   </si>
   <si>
     <t>{544.0: 1.0}</t>
@@ -991,7 +991,7 @@
     <t>{561.0: 1.0}</t>
   </si>
   <si>
-    <t>{562.0: 1.0, 211.0: 0.029372136890326056}</t>
+    <t>{562.0: 1.0, 211.0: 0.02952729242855208}</t>
   </si>
   <si>
     <t>{563.0: 0.9855681658960348}</t>
@@ -1027,10 +1027,10 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.7446916781977581}</t>
-  </si>
-  <si>
-    <t>{581.0: 1.0, 303.0: 0.08622222222222223}</t>
+    <t>{580.0: 0.7438143426791741}</t>
+  </si>
+  <si>
+    <t>{581.0: 1.0, 303.0: 0.08637577916295637}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -1042,7 +1042,7 @@
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 1.0, 434.0: 0.019332161687170474}</t>
+    <t>{585.0: 1.0, 434.0: 0.017354719957927953}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1051,7 +1051,7 @@
     <t>{587.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.21493016932394018, 172.0: 0.05718523401450231, 507.0: 0.2003813882532418}</t>
+    <t>{81.0: 0.21691405762754148, 172.0: 0.057871914609739825, 507.0: 0.20150341336196978}</t>
   </si>
   <si>
     <t>{589.0: 1.0}</t>
@@ -1066,7 +1066,7 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9980101878067787}</t>
+    <t>{593.0: 0.9980141594624873}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
@@ -1078,10 +1078,10 @@
     <t>{597.0: 1.0}</t>
   </si>
   <si>
-    <t>{598.0: 1.0, 599.0: 0.007421875}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.992578125}</t>
+    <t>{598.0: 1.0, 599.0: 0.007639726578206675}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9923602734217933}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1102,7 +1102,7 @@
     <t>{605.0: 1.0}</t>
   </si>
   <si>
-    <t>{606.0: 0.9985494106980961}</t>
+    <t>{606.0: 0.9985660512636674}</t>
   </si>
   <si>
     <t>{607.0: 1.0}</t>
@@ -1120,16 +1120,16 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.014371407148212946}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.985628592851787}</t>
-  </si>
-  <si>
-    <t>{305.0: 0.20773276863173715, 615.0: 0.006883365200764819, 698.0: 0.0026191723415400735, 832.0: 0.1194793119479312}</t>
-  </si>
-  <si>
-    <t>{615.0: 0.9931166347992352}</t>
+    <t>{612.0: 1.0, 613.0: 0.013974117504101099}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.986025882495899}</t>
+  </si>
+  <si>
+    <t>{305.0: 0.20784635363269768, 615.0: 0.006551410373066424, 698.0: 0.0026393929396238865, 832.0: 0.12134088762983947}</t>
+  </si>
+  <si>
+    <t>{615.0: 0.9934485896269336}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1138,10 +1138,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 1.0, 246.0: 0.0011568986971073226, 789.0: 0.004038844209271378}</t>
-  </si>
-  <si>
-    <t>{619.0: 1.0, 887.0: 0.008799155487749743}</t>
+    <t>{618.0: 1.0, 246.0: 0.001161647976018271, 789.0: 0.004038497551265335}</t>
+  </si>
+  <si>
+    <t>{619.0: 1.0, 887.0: 0.008659293192683624}</t>
   </si>
   <si>
     <t>{620.0: 1.0}</t>
@@ -1180,7 +1180,7 @@
     <t>{631.0: 1.0}</t>
   </si>
   <si>
-    <t>{251.0: 0.5533106669620003}</t>
+    <t>{251.0: 0.535961341134746}</t>
   </si>
   <si>
     <t>{633.0: 1.0}</t>
@@ -1204,13 +1204,13 @@
     <t>{680.0: 1.0}</t>
   </si>
   <si>
-    <t>{681.0: 0.9900502835134267}</t>
+    <t>{681.0: 0.9900364259695736}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{683.0: 1.0, 698.0: 0.0021036568325302507}</t>
+    <t>{683.0: 1.0, 698.0: 0.002118993978632306}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1219,7 +1219,7 @@
     <t>{685.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.8684354485776805}</t>
+    <t>{686.0: 0.8689016080675933}</t>
   </si>
   <si>
     <t>{687.0: 1.0}</t>
@@ -1246,16 +1246,16 @@
     <t>{694.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.1358224727016555, 857.0: 0.0961021239620225}</t>
-  </si>
-  <si>
-    <t>{696.0: 1.0, 492.0: 0.00618912783975939}</t>
+    <t>{298.0: 0.13746880570409983, 857.0: 0.09616585708363125}</t>
+  </si>
+  <si>
+    <t>{696.0: 1.0, 492.0: 0.006152667732088378}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9952771708259297}</t>
+    <t>{698.0: 0.9952416130817437}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1264,13 +1264,13 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9964349376114082}</t>
+    <t>{702.0: 0.9964323938637174}</t>
   </si>
   <si>
     <t>{703.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 1.0, 481.0: 0.006142506142506142}</t>
+    <t>{704.0: 1.0, 481.0: 0.006157635467980296}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
@@ -1279,16 +1279,16 @@
     <t>{706.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9947004269100544}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.24363993603638334}</t>
+    <t>{707.0: 0.9945071711931645}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.24448332331940328}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
   </si>
   <si>
-    <t>{730.0: 0.9535951045385007}</t>
+    <t>{730.0: 0.9525794684731631}</t>
   </si>
   <si>
     <t>{731.0: 1.0}</t>
@@ -1297,10 +1297,10 @@
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{733.0: 0.9184447605500237}</t>
-  </si>
-  <si>
-    <t>{734.0: 1.0, 73.0: 0.00143000143000143, 888.0: 0.010693069306930694}</t>
+    <t>{733.0: 0.923876963930073}</t>
+  </si>
+  <si>
+    <t>{734.0: 1.0, 73.0: 0.0014347202295552368, 888.0: 0.010686720759944587}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
@@ -1312,16 +1312,16 @@
     <t>{737.0: 1.0}</t>
   </si>
   <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.16721402580269057, 246.0: 0.013082761304817251}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9931837546151662, 246.0: 0.006528179710752452}</t>
+    <t>{740.0: 1.0, 789.0: 0.16719979757893755, 246.0: 0.01306833345561365}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.9931837546151662, 246.0: 0.006521528106835688}</t>
   </si>
   <si>
     <t>{743.0: 1.0}</t>
@@ -1339,7 +1339,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.18922155688622755, 476.0: 0.15811907053485494, 534.0: 0.10438459826396616}</t>
+    <t>{298.0: 0.19151515151515153, 476.0: 0.15970004166088042, 534.0: 0.1039450354609929}</t>
   </si>
   <si>
     <t>{750.0: 1.0}</t>
@@ -1348,7 +1348,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 1.0, 580.0: 0.01166838576585869}</t>
+    <t>{752.0: 1.0, 580.0: 0.011702334001422383}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1363,7 +1363,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.36222635520957475}</t>
+    <t>{757.0: 0.2513707719978347}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
@@ -1372,10 +1372,10 @@
     <t>{759.0: 1.0}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.05816302294063936}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9418369770593606}</t>
+    <t>{760.0: 1.0, 761.0: 0.05807537591257333}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9419246240874267}</t>
   </si>
   <si>
     <t>{762.0: 1.0}</t>
@@ -1393,7 +1393,7 @@
     <t>{766.0: 1.0}</t>
   </si>
   <si>
-    <t>{767.0: 0.9924251679902261}</t>
+    <t>{767.0: 0.9930648769574945}</t>
   </si>
   <si>
     <t>{768.0: 1.0}</t>
@@ -1408,10 +1408,10 @@
     <t>{771.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 1.0, 493.0: 0.007941760423560556}</t>
-  </si>
-  <si>
-    <t>{773.0: 1.0, 757.0: 0.48207276056823234}</t>
+    <t>{772.0: 1.0, 493.0: 0.007917308115240818}</t>
+  </si>
+  <si>
+    <t>{773.0: 1.0, 757.0: 0.556053224370056}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1435,7 +1435,7 @@
     <t>{781.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.7756341095382191}</t>
+    <t>{782.0: 0.7705424927926521}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1450,19 +1450,19 @@
     <t>{786.0: 1.0}</t>
   </si>
   <si>
-    <t>{500.0: 0.1891891891891892}</t>
+    <t>{500.0: 0.19244783040741967}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.8256664652130076, 246.0: 0.06459982785487224}</t>
+    <t>{789.0: 0.8256747836675226, 246.0: 0.06453472764382166}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
   </si>
   <si>
-    <t>{832.0: 0.8805206880520688}</t>
+    <t>{832.0: 0.8786591123701605}</t>
   </si>
   <si>
     <t>{833.0: 1.0}</t>
@@ -1480,7 +1480,7 @@
     <t>{837.0: 1.0}</t>
   </si>
   <si>
-    <t>{838.0: 1.0, 423.0: 0.0036780614452617912}</t>
+    <t>{838.0: 1.0, 423.0: 0.0036653730056058647}</t>
   </si>
   <si>
     <t>{839.0: 1.0}</t>
@@ -1495,10 +1495,10 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{843.0: 0.9478628729180346, 264.0: 0.1743048087207244}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.34034653465346537, 686.0: 0.02735229759299781}</t>
+    <t>{843.0: 0.9468992686500731, 264.0: 0.17735481400834197}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.3808864265927978, 686.0: 0.02725538293813028}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1510,22 +1510,22 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 1.0, 707.0: 0.005299573089945532}</t>
+    <t>{848.0: 1.0, 707.0: 0.00549282880683552}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 1.0, 277.0: 0.03975822699798522}</t>
-  </si>
-  <si>
-    <t>{851.0: 1.0, 7.0: 0.014550392860607237}</t>
+    <t>{850.0: 1.0, 277.0: 0.039946018893387315}</t>
+  </si>
+  <si>
+    <t>{851.0: 1.0, 7.0: 0.014697236919459141}</t>
   </si>
   <si>
     <t>{852.0: 1.0}</t>
   </si>
   <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646, 104.0: 1.264530874020446e-05}</t>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345, 104.0: 1.1736537672851953e-05}</t>
   </si>
   <si>
     <t>{854.0: 1.0}</t>
@@ -1537,10 +1537,10 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.8990345785432283}</t>
-  </si>
-  <si>
-    <t>{858.0: 1.0, 543.0: 0.01868587309592908}</t>
+    <t>{857.0: 0.8989726414753124}</t>
+  </si>
+  <si>
+    <t>{858.0: 1.0, 543.0: 0.01869124305531175}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1555,7 +1555,7 @@
     <t>{862.0: 1.0}</t>
   </si>
   <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1564,10 +1564,10 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.8095480453184366, 61.0: 0.0008127535491900388}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.9893069306930693}</t>
+    <t>{887.0: 0.8085430450876522, 61.0: 0.0008540120564287575}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.9893132792400554}</t>
   </si>
   <si>
     <t>{889.0: 1.0}</t>
@@ -1591,10 +1591,10 @@
     <t>{895.0: 1.0}</t>
   </si>
   <si>
-    <t>{896.0: 1.0, 897.0: 0.025430154564012833}</t>
-  </si>
-  <si>
-    <t>{897.0: 0.726269672766488}</t>
+    <t>{896.0: 1.0, 897.0: 0.02537243947858473}</t>
+  </si>
+  <si>
+    <t>{897.0: 0.7268702215640015}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1603,10 +1603,10 @@
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{907.0: 1.0, 930.0: 0.011826880543850254}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.9538944477143417}</t>
+    <t>{907.0: 1.0, 930.0: 0.012177289833880672}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.9529482430673741}</t>
   </si>
   <si>
     <t>{910.0: 1.0}</t>
@@ -1621,7 +1621,7 @@
     <t>{914.0: 0.9747840298855942}</t>
   </si>
   <si>
-    <t>{915.0: 1.0, 171.0: 0.25325887987017, 420.0: 0.13447613311335305}</t>
+    <t>{915.0: 1.0, 171.0: 0.2504542281463881, 420.0: 0.135890820516969}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
@@ -1639,10 +1639,10 @@
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 1.0, 275.0: 0.005141916906622789, 686.0: 0.10421225382932166}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.9338766944124358}</t>
+    <t>{921.0: 1.0, 275.0: 0.00511770726714432, 686.0: 0.10384300899427637}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.9351039605965444}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1660,13 +1660,13 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.2986245474636466, 418.0: 0.12031725784494546, 922.0: 0.06612330558756407}</t>
-  </si>
-  <si>
-    <t>{929.0: 1.0, 930.0: 0.5950301158909659}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.3931430035651839}</t>
+    <t>{3.0: 0.3050371432060981, 418.0: 0.12063254298053716, 922.0: 0.06489603940345559}</t>
+  </si>
+  <si>
+    <t>{929.0: 1.0, 930.0: 0.6060352661106199}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.38178744405549936}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
@@ -1675,10 +1675,10 @@
     <t>{932.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 702.0: 0.0035650623885918}</t>
-  </si>
-  <si>
-    <t>{934.0: 1.0, 5.0: 0.01186744290192566}</t>
+    <t>{933.0: 1.0, 702.0: 0.0035676061362825543}</t>
+  </si>
+  <si>
+    <t>{934.0: 1.0, 5.0: 0.01182244033013607}</t>
   </si>
   <si>
     <t>{935.0: 1.0}</t>
@@ -1687,10 +1687,10 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 171.0: 0.001047559187094071, 593.0: 0.0010371487837073355}</t>
-  </si>
-  <si>
-    <t>{938.0: 0.7590095611669527}</t>
+    <t>{937.0: 1.0, 171.0: 0.0010441683199331733, 593.0: 0.001033446072904923}</t>
+  </si>
+  <si>
+    <t>{938.0: 0.750950088674943}</t>
   </si>
   <si>
     <t>{939.0: 1.0}</t>
@@ -1711,7 +1711,7 @@
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 975.0: 0.002119815668202765}</t>
+    <t>{971.0: 1.0, 975.0: 0.002163077212451801}</t>
   </si>
   <si>
     <t>{139.0: 0.3506731946144431}</t>
@@ -1723,7 +1723,7 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9970583576792547}</t>
+    <t>{975.0: 0.9970151317640227}</t>
   </si>
   <si>
     <t>{976.0: 1.0}</t>
@@ -1732,7 +1732,7 @@
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.21782088391677432}</t>
+    <t>{782.0: 0.22276459382152106}</t>
   </si>
   <si>
     <t>{979.0: 1.0}</t>
@@ -1744,16 +1744,16 @@
     <t>{981.0: 1.0}</t>
   </si>
   <si>
-    <t>{989.0: 1.0, 249.0: 0.007024977698483497, 495.0: 0.06982248520710059}</t>
+    <t>{989.0: 1.0, 249.0: 0.007069120287253142, 495.0: 0.07077735124760076}</t>
   </si>
   <si>
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.23175332130556012, 938.0: 0.24099043883304733}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.995576199955762}</t>
+    <t>{497.0: 0.23277140189995058, 938.0: 0.249049911325057}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.9955840141311548}</t>
   </si>
   <si>
     <t>{486.0: 1.0}</t>
@@ -1780,10 +1780,10 @@
     <t>{34.0: 0.6476663616158975, 995.0: 0.3523336383841025}</t>
   </si>
   <si>
-    <t>{46.0: 0.900252841273, 246.0: 0.05698406038140837, 681.0: 0.010181063660729604, 741.0: 0.007279386419432871, 789.0: 0.011061758665847639, 90.0: 0.014240889599581853}</t>
-  </si>
-  <si>
-    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966833, 291.0: 0.008663113498195959}</t>
+    <t>{46.0: 0.9002528412729998, 246.0: 0.05698330500849371, 681.0: 0.010181063660729609, 741.0: 0.007279386419432871, 789.0: 0.0110625140387623, 90.0: 0.014240889599581853}</t>
+  </si>
+  <si>
+    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966835, 291.0: 0.008663113498195959}</t>
   </si>
   <si>
     <t>{61.0: 1.0}</t>
@@ -1795,7 +1795,7 @@
     <t>{73.0: 1.0}</t>
   </si>
   <si>
-    <t>{80.0: 0.9332690453230472, 757.0: 0.06673095467695275}</t>
+    <t>{80.0: 0.933269045323047, 757.0: 0.06673095467695275}</t>
   </si>
   <si>
     <t>{81.0: 1.0}</t>
@@ -1816,10 +1816,10 @@
     <t>{104.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 0.9917627471870584, 543.0: 0.006503749981553383, 86.0: 0.001733502831387958}</t>
-  </si>
-  <si>
-    <t>{109.0: 0.9924710641645129, 110.0: 0.007528935835487132}</t>
+    <t>{107.0: 0.9917627471870587, 543.0: 0.006503749981553383, 86.0: 0.001733502831387958}</t>
+  </si>
+  <si>
+    <t>{109.0: 0.9924710641645128, 110.0: 0.007528935835487133}</t>
   </si>
   <si>
     <t>{110.0: 1.0}</t>
@@ -1831,10 +1831,10 @@
     <t>{142.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.929038025166747, 733.0: 0.07096197483325312}</t>
-  </si>
-  <si>
-    <t>{152.0: 0.9990500316656112, 975.0: 0.0009499683343888536}</t>
+    <t>{147.0: 0.9290380251667472, 733.0: 0.07096197483325312}</t>
+  </si>
+  <si>
+    <t>{152.0: 0.9990500316656111, 975.0: 0.0009499683343888537}</t>
   </si>
   <si>
     <t>{162.0: 1.0}</t>
@@ -1846,31 +1846,31 @@
     <t>{171.0: 1.0}</t>
   </si>
   <si>
-    <t>{172.0: 0.9946275071633238, 81.0: 0.0053724928366762174}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.6048355132778438, 502.0: 0.39516448672215615}</t>
+    <t>{172.0: 0.9946275071633237, 81.0: 0.0053724928366762174}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.607325718786924, 502.0: 0.392674281213076}</t>
   </si>
   <si>
     <t>{178.0: 0.9924042536179739, 14.0: 0.007595746382026066}</t>
   </si>
   <si>
-    <t>{180.0: 0.9746846160358987, 410.0: 0.025315383964101257}</t>
+    <t>{180.0: 0.9746846160358987, 410.0: 0.025315383964101254}</t>
   </si>
   <si>
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.9851907854825456, 171.0: 0.01140669665423573, 593.0: 0.003402517863218782}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.9946148092744952, 857.0: 0.005385190725504862}</t>
+    <t>{184.0: 0.9851611849546508, 171.0: 0.0114270102005864, 593.0: 0.0034118048447628795}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.9946682464454977, 857.0: 0.00533175355450237}</t>
   </si>
   <si>
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9783393501805056, 681.0: 0.021660649819494584}</t>
+    <t>{212.0: 0.9783393501805054, 681.0: 0.021660649819494584}</t>
   </si>
   <si>
     <t>{897.0: 1.0}</t>
@@ -1879,16 +1879,16 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.7815333823680913, 409.0: 0.2184666176319087}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.900153609831029, 999.0: 0.0998463901689708}</t>
+    <t>{218.0: 0.7813754377265826, 409.0: 0.21862456227341748}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.9001536098310294, 999.0: 0.09984639016897082}</t>
   </si>
   <si>
     <t>{227.0: 1.0}</t>
   </si>
   <si>
-    <t>{228.0: 0.9923809523809523, 738.0: 0.00761904761904762}</t>
+    <t>{228.0: 0.9923809523809524, 738.0: 0.00761904761904762}</t>
   </si>
   <si>
     <t>{240.0: 0.9978021978021978, 241.0: 0.002197802197802198}</t>
@@ -1909,13 +1909,13 @@
     <t>{253.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.9789285950194863, 843.0: 0.0210714049805139}</t>
+    <t>{264.0: 0.9789285950194857, 843.0: 0.0210714049805139}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{61.0: 0.28869996457669145, 887.0: 0.7113000354233082}</t>
+    <t>{61.0: 0.28869996457669145, 887.0: 0.7113000354233088}</t>
   </si>
   <si>
     <t>{275.0: 1.0}</t>
@@ -1927,7 +1927,7 @@
     <t>{278.0: 0.9590864276721839, 767.0: 0.016295795701747166, 757.0: 0.02461777662606893}</t>
   </si>
   <si>
-    <t>{286.0: 0.9156799425905991, 909.0: 0.0843200574094008}</t>
+    <t>{286.0: 0.9161163662323755, 909.0: 0.08388363376762449}</t>
   </si>
   <si>
     <t>{288.0: 1.0}</t>
@@ -1954,7 +1954,7 @@
     <t>{309.0: 0.9977698483496878, 204.0: 0.0022301516503122213}</t>
   </si>
   <si>
-    <t>{315.0: 0.9926840420667581, 217.0: 0.007315957933241884}</t>
+    <t>{315.0: 0.9926840420667583, 217.0: 0.007315957933241884}</t>
   </si>
   <si>
     <t>{398.0: 0.4871142396204139, 98.0: 0.5128857603795861}</t>
@@ -1963,13 +1963,13 @@
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9895904270843467, 476.0: 0.010409572915653274}</t>
+    <t>{402.0: 0.9895904270843466, 476.0: 0.010409572915653274}</t>
   </si>
   <si>
     <t>{404.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.3656576480042861, 404.0: 0.6343423519957139}</t>
+    <t>{405.0: 0.35768535262206147, 404.0: 0.6423146473779385}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -1981,7 +1981,7 @@
     <t>{418.0: 1.0}</t>
   </si>
   <si>
-    <t>{419.0: 0.9852104664391353, 17.0: 0.01478953356086462}</t>
+    <t>{419.0: 0.9852607709750566, 17.0: 0.01473922902494331}</t>
   </si>
   <si>
     <t>{420.0: 1.0}</t>
@@ -1999,7 +1999,7 @@
     <t>{441.0: 0.9886363636363636, 782.0: 0.011363636363636364}</t>
   </si>
   <si>
-    <t>{443.0: 0.8939655172413792, 291.0: 0.1060344827586207}</t>
+    <t>{443.0: 0.8939655172413793, 291.0: 0.1060344827586207}</t>
   </si>
   <si>
     <t>{476.0: 1.0}</t>
@@ -2038,13 +2038,13 @@
     <t>{534.0: 1.0}</t>
   </si>
   <si>
-    <t>{535.0: 0.9934522679825392, 71.0: 0.0065477320174606194}</t>
+    <t>{535.0: 0.9934522679825394, 71.0: 0.006547732017460619}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
   </si>
   <si>
-    <t>{562.0: 0.9667784212130447, 211.0: 0.0332215787869552}</t>
+    <t>{562.0: 0.9667784212130448, 211.0: 0.0332215787869552}</t>
   </si>
   <si>
     <t>{563.0: 1.0}</t>
@@ -2086,16 +2086,16 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.8292882465230433, 615.0: 0.019634578674665937, 698.0: 0.0109080992637033, 832.0: 0.14016907553858743}</t>
+    <t>{305.0: 0.8292882465230433, 615.0: 0.01963457867466594, 698.0: 0.0109080992637033, 832.0: 0.1401690755385874}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 0.9843454790823212, 246.0: 0.002679003981593863, 789.0: 0.012975516936084949}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.986706497386109, 887.0: 0.013293502613890963}</t>
+    <t>{618.0: 0.9843454790823212, 246.0: 0.002678117924110302, 789.0: 0.012976402993568508}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9866666666666667, 887.0: 0.013333333333333334}</t>
   </si>
   <si>
     <t>{681.0: 1.0}</t>
@@ -2107,10 +2107,10 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.7258720104389738, 857.0: 0.2741279895610262}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9840861597813856, 492.0: 0.01591384021861437}</t>
+    <t>{298.0: 0.7259705854114223, 857.0: 0.2740294145885776}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9841142490372272, 492.0: 0.015885750962772786}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2119,7 +2119,7 @@
     <t>{702.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 0.9874529485570892, 481.0: 0.012547051442910916}</t>
+    <t>{704.0: 0.9874529485570893, 481.0: 0.012547051442910916}</t>
   </si>
   <si>
     <t>{707.0: 1.0}</t>
@@ -2131,22 +2131,22 @@
     <t>{733.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 0.9638009049773756, 73.0: 0.005656108597285068, 888.0: 0.030542986425339366}</t>
+    <t>{734.0: 0.9645232815964523, 73.0: 0.005543237250554324, 888.0: 0.02993348115299335}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 0.701123595505618, 789.0: 0.2817308042745055, 246.0: 0.017145600219876624}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9831149927219797, 246.0: 0.016885007278020378}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.5626309174696271, 476.0: 0.24088814411395054, 534.0: 0.19648093841642228}</t>
-  </si>
-  <si>
-    <t>{752.0: 0.9259410801963992, 580.0: 0.07405891980360066}</t>
+    <t>{740.0: 0.701123595505618, 789.0: 0.2817500427902968, 246.0: 0.017126361704085165}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.9831149927219794, 246.0: 0.016885007278020378}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.5626309174696271, 476.0: 0.24088814411395057, 534.0: 0.19648093841642228}</t>
+  </si>
+  <si>
+    <t>{752.0: 0.9263928426189508, 580.0: 0.07360715738104921}</t>
   </si>
   <si>
     <t>{757.0: 1.0}</t>
@@ -2161,22 +2161,22 @@
     <t>{767.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 0.9882429784454607, 493.0: 0.011757021554539518}</t>
-  </si>
-  <si>
-    <t>{773.0: 0.8230245634803199, 757.0: 0.17697543651968034}</t>
+    <t>{772.0: 0.9882429784454606, 493.0: 0.011757021554539514}</t>
+  </si>
+  <si>
+    <t>{773.0: 0.8230245634803195, 757.0: 0.17697543651968037}</t>
   </si>
   <si>
     <t>{782.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9426331421214654, 246.0: 0.057366857878534565}</t>
+    <t>{789.0: 0.9426975115915947, 246.0: 0.05730248840840526}</t>
   </si>
   <si>
     <t>{832.0: 1.0}</t>
   </si>
   <si>
-    <t>{838.0: 0.9922515952597992, 423.0: 0.007748404740200548}</t>
+    <t>{838.0: 0.9922515952597999, 423.0: 0.007748404740200547}</t>
   </si>
   <si>
     <t>{843.0: 0.6987318706890846, 264.0: 0.3012681293109154}</t>
@@ -2185,10 +2185,10 @@
     <t>{227.0: 0.9322033898305084, 686.0: 0.06779661016949153}</t>
   </si>
   <si>
-    <t>{848.0: 0.9943369513921662, 707.0: 0.005663048607833884}</t>
-  </si>
-  <si>
-    <t>{850.0: 0.9025032938076416, 277.0: 0.09749670619235837}</t>
+    <t>{848.0: 0.994336951392166, 707.0: 0.005663048607833884}</t>
+  </si>
+  <si>
+    <t>{850.0: 0.9025032938076416, 277.0: 0.09749670619235835}</t>
   </si>
   <si>
     <t>{851.0: 0.9234303215926492, 7.0: 0.07656967840735067}</t>
@@ -2200,16 +2200,16 @@
     <t>{857.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.9872985781990522, 543.0: 0.012701421800947868}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.999269920734251, 253.0: 0.0007300792657488527}</t>
+    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947868}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9992699207342512, 253.0: 0.0007300792657488527}</t>
   </si>
   <si>
     <t>{863.0: 0.972273998136067, 10.0: 0.027726001863932898}</t>
   </si>
   <si>
-    <t>{887.0: 0.9991196024500588, 61.0: 0.0008803975499411181}</t>
+    <t>{887.0: 0.9991324078477681, 61.0: 0.0008675921522319133}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -2218,7 +2218,7 @@
     <t>{896.0: 0.6231633535004322, 897.0: 0.37683664649956783}</t>
   </si>
   <si>
-    <t>{907.0: 0.9115906717716671, 930.0: 0.08840932822833276}</t>
+    <t>{907.0: 0.912171507607192, 930.0: 0.08782849239280771}</t>
   </si>
   <si>
     <t>{909.0: 1.0}</t>
@@ -2227,7 +2227,7 @@
     <t>{914.0: 1.0}</t>
   </si>
   <si>
-    <t>{915.0: 0.5124185505583967, 171.0: 0.26032762398046216, 420.0: 0.2272538254611412}</t>
+    <t>{915.0: 0.5204580106136844, 171.0: 0.2557483187470411, 420.0: 0.22379367063927466}</t>
   </si>
   <si>
     <t>{921.0: 0.8294810569070874, 275.0: 0.005333597330935491, 686.0: 0.16518534576197702}</t>
@@ -2236,10 +2236,10 @@
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.6037465689154068, 418.0: 0.2270676708955246, 922.0: 0.16918576018906853}</t>
-  </si>
-  <si>
-    <t>{929.0: 0.543897130948833, 930.0: 0.45610286905116687}</t>
+    <t>{3.0: 0.6037733799331189, 418.0: 0.2270600978914214, 922.0: 0.1691665221754596}</t>
+  </si>
+  <si>
+    <t>{929.0: 0.5444853873370559, 930.0: 0.455514612662944}</t>
   </si>
   <si>
     <t>{930.0: 1.0}</t>
@@ -2248,13 +2248,13 @@
     <t>{931.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 0.9937323722970856, 702.0: 0.006267627702914447}</t>
-  </si>
-  <si>
-    <t>{934.0: 0.9748517200474495, 5.0: 0.025148279952550416}</t>
-  </si>
-  <si>
-    <t>{937.0: 0.9930522596635553, 171.0: 0.0033101741988785177, 593.0: 0.003637566137566138}</t>
+    <t>{933.0: 0.9937616968184654, 702.0: 0.006238303181534623}</t>
+  </si>
+  <si>
+    <t>{934.0: 0.9748517200474496, 5.0: 0.025148279952550416}</t>
+  </si>
+  <si>
+    <t>{937.0: 0.9930546558837803, 171.0: 0.003310182186279268, 593.0: 0.003635161929940515}</t>
   </si>
   <si>
     <t>{938.0: 1.0}</t>
@@ -2269,7 +2269,7 @@
     <t>{989.0: 0.9567945932898866, 249.0: 0.007603186097031138, 495.0: 0.035602220613082304}</t>
   </si>
   <si>
-    <t>{497.0: 0.811757947146687, 938.0: 0.18824205285331294}</t>
+    <t>{497.0: 0.8117579471466871, 938.0: 0.1882420528533129}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
@@ -4321,7 +4321,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4343,29 +4343,29 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>627</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>158</v>
+        <v>627</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4376,73 +4376,73 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>628</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>161</v>
+        <v>628</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>629</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>629</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>630</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
+        <v>630</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4475,7 +4475,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4530,7 +4530,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4541,51 +4541,51 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>631</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>178</v>
+        <v>633</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4596,7 +4596,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4618,7 +4618,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4640,62 +4640,62 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>634</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>185</v>
+        <v>634</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>635</v>
+        <v>186</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>636</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4717,29 +4717,29 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>614</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>192</v>
+        <v>614</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4750,7 +4750,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4761,84 +4761,84 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>637</v>
+        <v>195</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>196</v>
+        <v>637</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>638</v>
+        <v>197</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>199</v>
+        <v>639</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>640</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>201</v>
+        <v>640</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4849,7 +4849,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4882,7 +4882,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4893,29 +4893,29 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>641</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>208</v>
+        <v>641</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4948,62 +4948,62 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>642</v>
+        <v>212</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>213</v>
+        <v>642</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>643</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>216</v>
+        <v>644</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -5014,29 +5014,29 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>645</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>219</v>
+        <v>645</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -5058,7 +5058,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -5069,29 +5069,29 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>646</v>
+        <v>223</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>224</v>
+        <v>646</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -5102,7 +5102,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -5113,7 +5113,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
